--- a/Dashboards-test/SENTRY.xlsx
+++ b/Dashboards-test/SENTRY.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$38</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$45</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$38</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$45</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$38</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$38</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$45</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$45</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,22 +58,25 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
-    <x:t>HAWK-EYE</x:t>
+    <x:t>Doctor Surviv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Corona</x:t>
   </x:si>
   <x:si>
     <x:t>12_Haz-</x:t>
   </x:si>
   <x:si>
-    <x:t>The Corona</x:t>
-  </x:si>
-  <x:si>
     <x:t>Rocketterritory</x:t>
   </x:si>
   <x:si>
+    <x:t>me18guy</x:t>
+  </x:si>
+  <x:si>
     <x:t>The Titan</x:t>
   </x:si>
   <x:si>
-    <x:t>me18guy</x:t>
+    <x:t>Lightning dude</x:t>
   </x:si>
   <x:si>
     <x:t>Oliver1329</x:t>
@@ -166,6 +169,24 @@
     <x:t>Potato Bot</x:t>
   </x:si>
   <x:si>
+    <x:t>Erin diamond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austzilla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R3venge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PrismStar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>klc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JustLeo</x:t>
+  </x:si>
+  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
@@ -184,64 +205,106 @@
     <x:t>1,4 (31/22)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,3 (7/3)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (7/3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>2,0 (8/4)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,0 (993/509)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (21/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (201/102)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (1/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (57/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (162/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (208/133)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (19/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (4/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (81/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (24/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (123/33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (63/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (29/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (45/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (445/364)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (52/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (129/131)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (99/74)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (13/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (13/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (41/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (42/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (25/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (18/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (2/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (11/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (177/149)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,9 (69/37)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (343/242)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (123/69)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (220/173)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (45/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (445/364)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (52/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (129/131)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (99/74)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (13/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (13/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (41/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (42/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (25/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (18/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (2/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (11/6)</x:t>
+    <x:t>1,0 (108/112)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (4/4)</x:t>
   </x:si>
   <x:si>
     <x:t>0,6 (124/200)</x:t>
@@ -745,55 +808,105 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>3160.46107812497</x:v>
+        <x:v>3206.99829464284</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>114611.780145833</x:v>
+        <x:v>317760.817416666</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>651.375208333309</x:v>
       </x:c>
       <x:c r="F2" s="16" t="n">
-        <x:v>5708.02599999994</x:v>
+        <x:v>7667.99574999989</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>34.7241666666814</x:v>
       </x:c>
       <x:c r="H2" s="16" t="n">
-        <x:v>6933.81831249995</x:v>
-      </x:c>
-      <x:c r="I2" s="16" t="s"/>
-      <x:c r="J2" s="16" t="s"/>
-      <x:c r="K2" s="16" t="s"/>
-      <x:c r="L2" s="16" t="s"/>
-      <x:c r="M2" s="16" t="s"/>
-      <x:c r="N2" s="16" t="s"/>
-      <x:c r="O2" s="16" t="s"/>
-      <x:c r="P2" s="16" t="s"/>
+        <x:v>1549.28816666658</x:v>
+      </x:c>
+      <x:c r="I2" s="16" t="n">
+        <x:v>6776.15354166669</x:v>
+      </x:c>
+      <x:c r="J2" s="16" t="n">
+        <x:v>11297.3093750001</x:v>
+      </x:c>
+      <x:c r="K2" s="16" t="n">
+        <x:v>332.174041666673</x:v>
+      </x:c>
+      <x:c r="L2" s="16" t="n">
+        <x:v>90.1114999999991</x:v>
+      </x:c>
+      <x:c r="M2" s="16" t="n">
+        <x:v>1659.84533333336</x:v>
+      </x:c>
+      <x:c r="N2" s="16" t="n">
+        <x:v>554.782833333302</x:v>
+      </x:c>
+      <x:c r="O2" s="16" t="n">
+        <x:v>2.90833333332557</x:v>
+      </x:c>
+      <x:c r="P2" s="16" t="n">
+        <x:v>11548.00275</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>1995.56379166659</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>737.74133333331</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>1921.37897916667</x:v>
+        <x:v>1183.07554761904</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>50710.6045208332</x:v>
-      </x:c>
-      <x:c r="E3" s="16" t="s"/>
-      <x:c r="F3" s="16" t="s"/>
-      <x:c r="G3" s="16" t="s"/>
-      <x:c r="H3" s="16" t="s"/>
-      <x:c r="I3" s="16" t="s"/>
-      <x:c r="J3" s="16" t="s"/>
-      <x:c r="K3" s="16" t="s"/>
-      <x:c r="L3" s="16" t="s"/>
-      <x:c r="M3" s="16" t="s"/>
-      <x:c r="N3" s="16" t="s"/>
-      <x:c r="O3" s="16" t="s"/>
+        <x:v>183800.297916666</x:v>
+      </x:c>
+      <x:c r="E3" s="16" t="n">
+        <x:v>1339.30208333328</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="n">
+        <x:v>2679.70283333334</x:v>
+      </x:c>
+      <x:c r="G3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="16" t="n">
+        <x:v>3974.73283333331</x:v>
+      </x:c>
+      <x:c r="I3" s="16" t="n">
+        <x:v>336.815500000026</x:v>
+      </x:c>
+      <x:c r="J3" s="16" t="n">
+        <x:v>190.735666666646</x:v>
+      </x:c>
+      <x:c r="K3" s="16" t="n">
+        <x:v>5799.16350000005</x:v>
+      </x:c>
+      <x:c r="L3" s="16" t="n">
+        <x:v>1213.71491666662</x:v>
+      </x:c>
+      <x:c r="M3" s="16" t="n">
+        <x:v>582.369666666666</x:v>
+      </x:c>
+      <x:c r="N3" s="16" t="n">
+        <x:v>272.117499999964</x:v>
+      </x:c>
+      <x:c r="O3" s="16" t="n">
+        <x:v>30.9356666666572</x:v>
+      </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>1921.37897916667</x:v>
+        <x:v>143.467499999999</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -801,46 +914,30 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>1380.25480555555</x:v>
+        <x:v>640.459659722223</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>183800.297916666</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="n">
-        <x:v>1339.30208333328</x:v>
-      </x:c>
-      <x:c r="F4" s="16" t="n">
-        <x:v>2679.70283333334</x:v>
-      </x:c>
-      <x:c r="G4" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="16" t="n">
-        <x:v>3974.73283333331</x:v>
-      </x:c>
-      <x:c r="I4" s="16" t="n">
-        <x:v>336.815500000026</x:v>
-      </x:c>
-      <x:c r="J4" s="16" t="n">
-        <x:v>190.735666666646</x:v>
-      </x:c>
-      <x:c r="K4" s="16" t="n">
-        <x:v>5799.16350000005</x:v>
-      </x:c>
-      <x:c r="L4" s="16" t="n">
-        <x:v>1213.71491666662</x:v>
-      </x:c>
-      <x:c r="M4" s="16" t="n">
-        <x:v>582.369666666666</x:v>
-      </x:c>
-      <x:c r="N4" s="16" t="n">
-        <x:v>272.117499999964</x:v>
-      </x:c>
-      <x:c r="O4" s="16" t="n">
-        <x:v>30.9356666666572</x:v>
-      </x:c>
+        <x:v>50710.6045208332</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="s"/>
+      <x:c r="F4" s="16" t="s"/>
+      <x:c r="G4" s="16" t="s"/>
+      <x:c r="H4" s="16" t="s"/>
+      <x:c r="I4" s="16" t="s"/>
+      <x:c r="J4" s="16" t="s"/>
+      <x:c r="K4" s="16" t="s"/>
+      <x:c r="L4" s="16" t="s"/>
+      <x:c r="M4" s="16" t="s"/>
+      <x:c r="N4" s="16" t="s"/>
+      <x:c r="O4" s="16" t="s"/>
       <x:c r="P4" s="16" t="n">
-        <x:v>143.467499999999</x:v>
+        <x:v>1921.37897916667</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -848,7 +945,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>635.269819444436</x:v>
+        <x:v>544.516988095231</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
         <x:v>38121.5452499999</x:v>
@@ -887,6 +984,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -895,20 +998,14 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>372.049100694444</x:v>
+        <x:v>411.758833333331</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>23150.2135</x:v>
-      </x:c>
-      <x:c r="E6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="n">
-        <x:v>234.639666666666</x:v>
-      </x:c>
-      <x:c r="G6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>138491.750416667</x:v>
+      </x:c>
+      <x:c r="E6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s"/>
+      <x:c r="G6" s="16" t="s"/>
       <x:c r="H6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -916,7 +1013,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>3658.56704166667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
         <x:v>0</x:v>
@@ -925,7 +1022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>571.382499999996</x:v>
+        <x:v>2343.72720833332</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
         <x:v>0</x:v>
@@ -934,6 +1031,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>2185.61995833332</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -942,14 +1045,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>260.414134259258</x:v>
+        <x:v>318.899229166667</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>136306.130458333</x:v>
-      </x:c>
-      <x:c r="E7" s="16" t="s"/>
-      <x:c r="F7" s="16" t="s"/>
-      <x:c r="G7" s="16" t="s"/>
+        <x:v>23150.2135</x:v>
+      </x:c>
+      <x:c r="E7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="n">
+        <x:v>234.639666666666</x:v>
+      </x:c>
+      <x:c r="G7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="H7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -957,7 +1066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>3658.56704166667</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
         <x:v>0</x:v>
@@ -966,7 +1075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>2343.72720833332</x:v>
+        <x:v>571.382499999996</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
         <x:v>0</x:v>
@@ -975,6 +1084,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -983,46 +1098,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>17.2791250000034</x:v>
+        <x:v>60.5415833333335</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>191887.466041667</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J8" s="16" t="n">
-        <x:v>157.11533333335</x:v>
-      </x:c>
-      <x:c r="K8" s="16" t="n">
-        <x:v>50.2341666666907</x:v>
-      </x:c>
-      <x:c r="L8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>24892.0886249999</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="G8" s="16" t="s"/>
+      <x:c r="H8" s="16" t="s"/>
+      <x:c r="I8" s="16" t="s"/>
+      <x:c r="J8" s="16" t="s"/>
+      <x:c r="K8" s="16" t="s"/>
+      <x:c r="L8" s="16" t="s"/>
+      <x:c r="M8" s="16" t="s"/>
+      <x:c r="N8" s="16" t="s"/>
+      <x:c r="O8" s="16" t="s"/>
+      <x:c r="P8" s="16" t="s"/>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>121.083166666667</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1030,10 +1127,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>10.615680555556</x:v>
+        <x:v>14.8106785714315</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>108229.69775</x:v>
+        <x:v>191887.466041667</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
         <x:v>0</x:v>
@@ -1051,10 +1148,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>157.11533333335</x:v>
       </x:c>
       <x:c r="K9" s="16" t="n">
-        <x:v>5.08983333333163</x:v>
+        <x:v>50.2341666666907</x:v>
       </x:c>
       <x:c r="L9" s="16" t="n">
         <x:v>0</x:v>
@@ -1063,12 +1160,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>122.29833333334</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1077,16 +1180,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>8.887</x:v>
+        <x:v>9.09915476190512</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>39320.1366666667</x:v>
+        <x:v>108229.69775</x:v>
       </x:c>
       <x:c r="E10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="16" t="n">
-        <x:v>106.644</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="16" t="n">
         <x:v>0</x:v>
@@ -1101,7 +1204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>5.08983333333163</x:v>
       </x:c>
       <x:c r="L10" s="16" t="n">
         <x:v>0</x:v>
@@ -1110,12 +1213,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>122.29833333334</x:v>
       </x:c>
       <x:c r="O10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1124,23 +1233,49 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>8.887</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>335631.830375</x:v>
-      </x:c>
-      <x:c r="E11" s="16" t="s"/>
-      <x:c r="F11" s="16" t="s"/>
-      <x:c r="G11" s="16" t="s"/>
-      <x:c r="H11" s="16" t="s"/>
-      <x:c r="I11" s="16" t="s"/>
-      <x:c r="J11" s="16" t="s"/>
-      <x:c r="K11" s="16" t="s"/>
-      <x:c r="L11" s="16" t="s"/>
-      <x:c r="M11" s="16" t="s"/>
-      <x:c r="N11" s="16" t="s"/>
-      <x:c r="O11" s="16" t="s"/>
-      <x:c r="P11" s="16" t="s"/>
+        <x:v>39320.1366666667</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="n">
+        <x:v>106.644</x:v>
+      </x:c>
+      <x:c r="G11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
@@ -1150,44 +1285,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>618998.448708333</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>335631.830375</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s"/>
+      <x:c r="F12" s="16" t="s"/>
+      <x:c r="G12" s="16" t="s"/>
+      <x:c r="H12" s="16" t="s"/>
+      <x:c r="I12" s="16" t="s"/>
+      <x:c r="J12" s="16" t="s"/>
+      <x:c r="K12" s="16" t="s"/>
+      <x:c r="L12" s="16" t="s"/>
+      <x:c r="M12" s="16" t="s"/>
+      <x:c r="N12" s="16" t="s"/>
+      <x:c r="O12" s="16" t="s"/>
+      <x:c r="P12" s="16" t="s"/>
+      <x:c r="Q12" s="16" t="s"/>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -1197,7 +1310,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>264800.470791666</x:v>
+        <x:v>618998.448708333</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
         <x:v>0</x:v>
@@ -1235,7 +1348,13 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -1245,24 +1364,50 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>288474.408208333</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="s"/>
-      <x:c r="F14" s="16" t="s"/>
-      <x:c r="G14" s="16" t="s"/>
-      <x:c r="H14" s="16" t="s"/>
-      <x:c r="I14" s="16" t="s"/>
-      <x:c r="J14" s="16" t="s"/>
-      <x:c r="K14" s="16" t="s"/>
-      <x:c r="L14" s="16" t="s"/>
-      <x:c r="M14" s="16" t="s"/>
-      <x:c r="N14" s="16" t="s"/>
-      <x:c r="O14" s="16" t="s"/>
-      <x:c r="P14" s="16" t="s"/>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>264800.470791666</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q14" s="16" t="s"/>
+      <x:c r="R14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1272,7 +1417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>60920.6880833333</x:v>
+        <x:v>288474.408208333</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s"/>
       <x:c r="F15" s="16" t="s"/>
@@ -1286,6 +1431,8 @@
       <x:c r="N15" s="16" t="s"/>
       <x:c r="O15" s="16" t="s"/>
       <x:c r="P15" s="16" t="s"/>
+      <x:c r="Q15" s="16" t="s"/>
+      <x:c r="R15" s="16" t="s"/>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1295,44 +1442,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>145825.142416667</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>60920.6880833333</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="s"/>
+      <x:c r="F16" s="16" t="s"/>
+      <x:c r="G16" s="16" t="s"/>
+      <x:c r="H16" s="16" t="s"/>
+      <x:c r="I16" s="16" t="s"/>
+      <x:c r="J16" s="16" t="s"/>
+      <x:c r="K16" s="16" t="s"/>
+      <x:c r="L16" s="16" t="s"/>
+      <x:c r="M16" s="16" t="s"/>
+      <x:c r="N16" s="16" t="s"/>
+      <x:c r="O16" s="16" t="s"/>
+      <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
@@ -1342,20 +1467,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>221526.195125</x:v>
-      </x:c>
-      <x:c r="E17" s="16" t="s"/>
-      <x:c r="F17" s="16" t="s"/>
-      <x:c r="G17" s="16" t="s"/>
-      <x:c r="H17" s="16" t="s"/>
-      <x:c r="I17" s="16" t="s"/>
-      <x:c r="J17" s="16" t="s"/>
-      <x:c r="K17" s="16" t="s"/>
-      <x:c r="L17" s="16" t="s"/>
-      <x:c r="M17" s="16" t="s"/>
-      <x:c r="N17" s="16" t="s"/>
-      <x:c r="O17" s="16" t="s"/>
-      <x:c r="P17" s="16" t="s"/>
+        <x:v>145825.142416667</x:v>
+      </x:c>
+      <x:c r="E17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1365,7 +1516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>266174.176833333</x:v>
+        <x:v>221526.195125</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s"/>
       <x:c r="F18" s="16" t="s"/>
@@ -1379,6 +1530,8 @@
       <x:c r="N18" s="16" t="s"/>
       <x:c r="O18" s="16" t="s"/>
       <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
@@ -1388,7 +1541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>216543.0465</x:v>
+        <x:v>266174.176833333</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="s"/>
@@ -1402,6 +1555,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
@@ -1411,7 +1566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>102488.898708333</x:v>
+        <x:v>216543.0465</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
       <x:c r="F20" s="16" t="s"/>
@@ -1425,6 +1580,8 @@
       <x:c r="N20" s="16" t="s"/>
       <x:c r="O20" s="16" t="s"/>
       <x:c r="P20" s="16" t="s"/>
+      <x:c r="Q20" s="16" t="s"/>
+      <x:c r="R20" s="16" t="s"/>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1434,7 +1591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>211962.743458333</x:v>
+        <x:v>102488.898708333</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -1448,6 +1605,8 @@
       <x:c r="N21" s="16" t="s"/>
       <x:c r="O21" s="16" t="s"/>
       <x:c r="P21" s="16" t="s"/>
+      <x:c r="Q21" s="16" t="s"/>
+      <x:c r="R21" s="16" t="s"/>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
@@ -1457,7 +1616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>578344.698583332</x:v>
+        <x:v>211962.743458333</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s"/>
       <x:c r="F22" s="16" t="s"/>
@@ -1471,6 +1630,8 @@
       <x:c r="N22" s="16" t="s"/>
       <x:c r="O22" s="16" t="s"/>
       <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
@@ -1480,44 +1641,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>221157.529458333</x:v>
-      </x:c>
-      <x:c r="E23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>578344.698583332</x:v>
+      </x:c>
+      <x:c r="E23" s="16" t="s"/>
+      <x:c r="F23" s="16" t="s"/>
+      <x:c r="G23" s="16" t="s"/>
+      <x:c r="H23" s="16" t="s"/>
+      <x:c r="I23" s="16" t="s"/>
+      <x:c r="J23" s="16" t="s"/>
+      <x:c r="K23" s="16" t="s"/>
+      <x:c r="L23" s="16" t="s"/>
+      <x:c r="M23" s="16" t="s"/>
+      <x:c r="N23" s="16" t="s"/>
+      <x:c r="O23" s="16" t="s"/>
+      <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
@@ -1527,20 +1666,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>215399.458958333</x:v>
-      </x:c>
-      <x:c r="E24" s="16" t="s"/>
-      <x:c r="F24" s="16" t="s"/>
-      <x:c r="G24" s="16" t="s"/>
-      <x:c r="H24" s="16" t="s"/>
-      <x:c r="I24" s="16" t="s"/>
-      <x:c r="J24" s="16" t="s"/>
-      <x:c r="K24" s="16" t="s"/>
-      <x:c r="L24" s="16" t="s"/>
-      <x:c r="M24" s="16" t="s"/>
-      <x:c r="N24" s="16" t="s"/>
-      <x:c r="O24" s="16" t="s"/>
-      <x:c r="P24" s="16" t="s"/>
+        <x:v>221157.529458333</x:v>
+      </x:c>
+      <x:c r="E24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="16" t="s"/>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
@@ -1550,7 +1715,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>86340.8476666666</x:v>
+        <x:v>215399.458958333</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
       <x:c r="F25" s="16" t="s"/>
@@ -1564,6 +1729,8 @@
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
@@ -1573,7 +1740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>99631.5073333333</x:v>
+        <x:v>86340.8476666666</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s"/>
       <x:c r="F26" s="16" t="s"/>
@@ -1587,6 +1754,8 @@
       <x:c r="N26" s="16" t="s"/>
       <x:c r="O26" s="16" t="s"/>
       <x:c r="P26" s="16" t="s"/>
+      <x:c r="Q26" s="16" t="s"/>
+      <x:c r="R26" s="16" t="s"/>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -1596,7 +1765,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>45225.7472083333</x:v>
+        <x:v>99631.5073333333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -1610,6 +1779,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -1619,7 +1790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>48457.688875</x:v>
+        <x:v>45225.7472083333</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -1633,6 +1804,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -1642,7 +1815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>48289.9420833334</x:v>
+        <x:v>48457.688875</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -1656,6 +1829,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -1665,44 +1840,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>5775.06891666667</x:v>
-      </x:c>
-      <x:c r="E30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P30" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>48289.9420833334</x:v>
+      </x:c>
+      <x:c r="E30" s="16" t="s"/>
+      <x:c r="F30" s="16" t="s"/>
+      <x:c r="G30" s="16" t="s"/>
+      <x:c r="H30" s="16" t="s"/>
+      <x:c r="I30" s="16" t="s"/>
+      <x:c r="J30" s="16" t="s"/>
+      <x:c r="K30" s="16" t="s"/>
+      <x:c r="L30" s="16" t="s"/>
+      <x:c r="M30" s="16" t="s"/>
+      <x:c r="N30" s="16" t="s"/>
+      <x:c r="O30" s="16" t="s"/>
+      <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -1712,20 +1865,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>24342.3356875</x:v>
-      </x:c>
-      <x:c r="E31" s="16" t="s"/>
-      <x:c r="F31" s="16" t="s"/>
-      <x:c r="G31" s="16" t="s"/>
-      <x:c r="H31" s="16" t="s"/>
-      <x:c r="I31" s="16" t="s"/>
-      <x:c r="J31" s="16" t="s"/>
-      <x:c r="K31" s="16" t="s"/>
-      <x:c r="L31" s="16" t="s"/>
-      <x:c r="M31" s="16" t="s"/>
-      <x:c r="N31" s="16" t="s"/>
-      <x:c r="O31" s="16" t="s"/>
-      <x:c r="P31" s="16" t="s"/>
+        <x:v>5775.06891666667</x:v>
+      </x:c>
+      <x:c r="E31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -1735,44 +1914,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>12982.4152916666</x:v>
-      </x:c>
-      <x:c r="E32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P32" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>24342.3356875</x:v>
+      </x:c>
+      <x:c r="E32" s="16" t="s"/>
+      <x:c r="F32" s="16" t="s"/>
+      <x:c r="G32" s="16" t="s"/>
+      <x:c r="H32" s="16" t="s"/>
+      <x:c r="I32" s="16" t="s"/>
+      <x:c r="J32" s="16" t="s"/>
+      <x:c r="K32" s="16" t="s"/>
+      <x:c r="L32" s="16" t="s"/>
+      <x:c r="M32" s="16" t="s"/>
+      <x:c r="N32" s="16" t="s"/>
+      <x:c r="O32" s="16" t="s"/>
+      <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -1782,7 +1939,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>109225.766895833</x:v>
+        <x:v>12982.4152916666</x:v>
       </x:c>
       <x:c r="E33" s="16" t="n">
         <x:v>0</x:v>
@@ -1820,6 +1977,8 @@
       <x:c r="P33" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -1829,7 +1988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>144393.831270833</x:v>
+        <x:v>109225.766895833</x:v>
       </x:c>
       <x:c r="E34" s="16" t="n">
         <x:v>0</x:v>
@@ -1867,6 +2026,8 @@
       <x:c r="P34" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -1876,22 +2037,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>134145.934020833</x:v>
-      </x:c>
-      <x:c r="E35" s="16" t="s"/>
-      <x:c r="F35" s="16" t="s"/>
-      <x:c r="G35" s="16" t="s"/>
-      <x:c r="H35" s="16" t="s"/>
-      <x:c r="I35" s="16" t="s"/>
-      <x:c r="J35" s="16" t="s"/>
-      <x:c r="K35" s="16" t="s"/>
-      <x:c r="L35" s="16" t="s"/>
-      <x:c r="M35" s="16" t="s"/>
-      <x:c r="N35" s="16" t="s"/>
-      <x:c r="O35" s="16" t="s"/>
+        <x:v>144393.831270833</x:v>
+      </x:c>
+      <x:c r="E35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="P35" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -1901,7 +2086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>12165.0140416667</x:v>
+        <x:v>134145.934020833</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -1917,6 +2102,12 @@
       <x:c r="P36" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -1926,7 +2117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>116046.65225</x:v>
+        <x:v>12165.0140416667</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -1940,6 +2131,211 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:146">
+      <x:c r="B38" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C38" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D38" s="15" t="n">
+        <x:v>116046.65225</x:v>
+      </x:c>
+      <x:c r="E38" s="16" t="s"/>
+      <x:c r="F38" s="16" t="s"/>
+      <x:c r="G38" s="16" t="s"/>
+      <x:c r="H38" s="16" t="s"/>
+      <x:c r="I38" s="16" t="s"/>
+      <x:c r="J38" s="16" t="s"/>
+      <x:c r="K38" s="16" t="s"/>
+      <x:c r="L38" s="16" t="s"/>
+      <x:c r="M38" s="16" t="s"/>
+      <x:c r="N38" s="16" t="s"/>
+      <x:c r="O38" s="16" t="s"/>
+      <x:c r="P38" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:146">
+      <x:c r="B39" s="14" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C39" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D39" s="15" t="n">
+        <x:v>2931.52437499999</x:v>
+      </x:c>
+      <x:c r="E39" s="16" t="s"/>
+      <x:c r="F39" s="16" t="s"/>
+      <x:c r="G39" s="16" t="s"/>
+      <x:c r="H39" s="16" t="s"/>
+      <x:c r="I39" s="16" t="s"/>
+      <x:c r="J39" s="16" t="s"/>
+      <x:c r="K39" s="16" t="s"/>
+      <x:c r="L39" s="16" t="s"/>
+      <x:c r="M39" s="16" t="s"/>
+      <x:c r="N39" s="16" t="s"/>
+      <x:c r="O39" s="16" t="s"/>
+      <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R39" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:146">
+      <x:c r="B40" s="14" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C40" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D40" s="15" t="n">
+        <x:v>19729.6233958333</x:v>
+      </x:c>
+      <x:c r="E40" s="16" t="s"/>
+      <x:c r="F40" s="16" t="s"/>
+      <x:c r="G40" s="16" t="s"/>
+      <x:c r="H40" s="16" t="s"/>
+      <x:c r="I40" s="16" t="s"/>
+      <x:c r="J40" s="16" t="s"/>
+      <x:c r="K40" s="16" t="s"/>
+      <x:c r="L40" s="16" t="s"/>
+      <x:c r="M40" s="16" t="s"/>
+      <x:c r="N40" s="16" t="s"/>
+      <x:c r="O40" s="16" t="s"/>
+      <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:146">
+      <x:c r="B41" s="14" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C41" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D41" s="15" t="n">
+        <x:v>14318.4950833333</x:v>
+      </x:c>
+      <x:c r="E41" s="16" t="s"/>
+      <x:c r="F41" s="16" t="s"/>
+      <x:c r="G41" s="16" t="s"/>
+      <x:c r="H41" s="16" t="s"/>
+      <x:c r="I41" s="16" t="s"/>
+      <x:c r="J41" s="16" t="s"/>
+      <x:c r="K41" s="16" t="s"/>
+      <x:c r="L41" s="16" t="s"/>
+      <x:c r="M41" s="16" t="s"/>
+      <x:c r="N41" s="16" t="s"/>
+      <x:c r="O41" s="16" t="s"/>
+      <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:146">
+      <x:c r="B42" s="14" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C42" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D42" s="15" t="n">
+        <x:v>104853.840416667</x:v>
+      </x:c>
+      <x:c r="E42" s="16" t="s"/>
+      <x:c r="F42" s="16" t="s"/>
+      <x:c r="G42" s="16" t="s"/>
+      <x:c r="H42" s="16" t="s"/>
+      <x:c r="I42" s="16" t="s"/>
+      <x:c r="J42" s="16" t="s"/>
+      <x:c r="K42" s="16" t="s"/>
+      <x:c r="L42" s="16" t="s"/>
+      <x:c r="M42" s="16" t="s"/>
+      <x:c r="N42" s="16" t="s"/>
+      <x:c r="O42" s="16" t="s"/>
+      <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R42" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:146">
+      <x:c r="B43" s="14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C43" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D43" s="15" t="n">
+        <x:v>101697.011958333</x:v>
+      </x:c>
+      <x:c r="E43" s="16" t="s"/>
+      <x:c r="F43" s="16" t="s"/>
+      <x:c r="G43" s="16" t="s"/>
+      <x:c r="H43" s="16" t="s"/>
+      <x:c r="I43" s="16" t="s"/>
+      <x:c r="J43" s="16" t="s"/>
+      <x:c r="K43" s="16" t="s"/>
+      <x:c r="L43" s="16" t="s"/>
+      <x:c r="M43" s="16" t="s"/>
+      <x:c r="N43" s="16" t="s"/>
+      <x:c r="O43" s="16" t="s"/>
+      <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R43" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:146">
+      <x:c r="B44" s="14" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C44" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D44" s="15" t="n">
+        <x:v>114758.863270833</x:v>
+      </x:c>
+      <x:c r="E44" s="16" t="s"/>
+      <x:c r="F44" s="16" t="s"/>
+      <x:c r="G44" s="16" t="s"/>
+      <x:c r="H44" s="16" t="s"/>
+      <x:c r="I44" s="16" t="s"/>
+      <x:c r="J44" s="16" t="s"/>
+      <x:c r="K44" s="16" t="s"/>
+      <x:c r="L44" s="16" t="s"/>
+      <x:c r="M44" s="16" t="s"/>
+      <x:c r="N44" s="16" t="s"/>
+      <x:c r="O44" s="16" t="s"/>
+      <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1961,19 +2357,23 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C50" sqref="C50"/>
+      <x:selection activeCell="C57" sqref="C57"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
-    <x:col min="2" max="2" width="19.840625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="19.130625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="13.270625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="10" max="14" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1982,7 +2382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -2029,252 +2429,252 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E2" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E3" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -2282,249 +2682,249 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>53</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -2532,49 +2932,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -2582,49 +2982,49 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -2632,49 +3032,49 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -2682,49 +3082,49 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -2732,49 +3132,49 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -2782,49 +3182,49 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -2832,49 +3232,49 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -2882,49 +3282,49 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
@@ -2932,49 +3332,49 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -2982,49 +3382,49 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
@@ -3032,49 +3432,49 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
@@ -3082,49 +3482,49 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -3132,49 +3532,49 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
@@ -3182,49 +3582,49 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
@@ -3232,49 +3632,49 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -3282,49 +3682,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -3332,49 +3732,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -3382,49 +3782,49 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -3432,49 +3832,49 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -3482,49 +3882,49 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -3532,49 +3932,49 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -3582,49 +3982,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -3632,49 +4032,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -3682,49 +4082,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -3732,49 +4132,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -3782,49 +4182,399 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N37" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O37" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P37" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q37" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:36">
+      <x:c r="B38" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C38" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O38" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q38" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:36">
+      <x:c r="B39" s="14" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C39" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O39" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P39" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q39" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:36">
+      <x:c r="B40" s="14" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D37" s="19" t="s">
+      <x:c r="C40" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O40" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P40" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q40" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:36">
+      <x:c r="B41" s="14" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C41" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O41" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P41" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q41" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:36">
+      <x:c r="B42" s="14" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C42" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O42" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P42" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q42" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:36">
+      <x:c r="B43" s="14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C43" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O43" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P43" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q43" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:36">
+      <x:c r="B44" s="14" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="E37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="M37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="N37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="O37" s="19" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P37" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="Q37" s="19" t="s">
-        <x:v>45</x:v>
+      <x:c r="C44" s="18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P44" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q44" s="19" t="s">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
